--- a/data/trans_dic/P36$nada-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36$nada-Estudios-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01621994340492267</v>
+        <v>0.01699805876808674</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01658023448773453</v>
+        <v>0.01626376187696833</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.007482278379469521</v>
+        <v>0.007084720992282455</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.006185732595525538</v>
+        <v>0.006962960606564865</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.00302320312483134</v>
+        <v>0.003153947861084994</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.001929479012772555</v>
+        <v>0.002083279413030627</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01253139156889842</v>
+        <v>0.0128520574898788</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01004756185019723</v>
+        <v>0.00945373381420277</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.00588638348676488</v>
+        <v>0.005519089077206062</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03628227539812082</v>
+        <v>0.0366110075398644</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03940029016552554</v>
+        <v>0.03754177118759022</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02567861430883678</v>
+        <v>0.02553587539253749</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01823661504184685</v>
+        <v>0.0193366125306939</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01343320536404935</v>
+        <v>0.01325561300585907</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01164056110388507</v>
+        <v>0.0123763868247139</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02403961075944251</v>
+        <v>0.02371242273979914</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02077307973665216</v>
+        <v>0.02031542634588988</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01535343240292799</v>
+        <v>0.01494563153199791</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01412793786146947</v>
+        <v>0.01458086773181867</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01989015209440006</v>
+        <v>0.01968315151661152</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01726022011671807</v>
+        <v>0.01677421696387639</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01347661137839033</v>
+        <v>0.01409755799796218</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02132984111515374</v>
+        <v>0.02060997188035048</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.009910958455924442</v>
+        <v>0.009353792789994477</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01509483068210205</v>
+        <v>0.01533813079330558</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02262577725076177</v>
+        <v>0.02257245584524634</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01460504481727517</v>
+        <v>0.01456850327844155</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02814411727648002</v>
+        <v>0.02756046172294455</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03537095630615759</v>
+        <v>0.03587853341356373</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03122828275400815</v>
+        <v>0.03096703001571562</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02746373547519843</v>
+        <v>0.0269203679640423</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03790066512810631</v>
+        <v>0.03795412826177434</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02061533154428894</v>
+        <v>0.02040311006773653</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02467579978427227</v>
+        <v>0.02465022741593056</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03386881141374758</v>
+        <v>0.03401491133630152</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02326937192276704</v>
+        <v>0.02352082907194238</v>
       </c>
     </row>
     <row r="10">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.006334750020494943</v>
+        <v>0.004988783100159006</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01149145202214435</v>
+        <v>0.01155256376505424</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.003541898701765796</v>
+        <v>0.003651020896182354</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.007499598050587601</v>
+        <v>0.007074457590137947</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
@@ -911,13 +911,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.008077807071303164</v>
+        <v>0.008058281384924782</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.007202699639081525</v>
+        <v>0.007055739492121283</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.002263770726207462</v>
+        <v>0.001829353859199424</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02725954224760468</v>
+        <v>0.0257169623604389</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04137707506408023</v>
+        <v>0.043889620715569</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02384951853143981</v>
+        <v>0.02244906960611494</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0323133623945701</v>
+        <v>0.03328654448579052</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01411399658506128</v>
+        <v>0.01400478596257916</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.008589837264696362</v>
+        <v>0.008546329744052304</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02487930990268617</v>
+        <v>0.02352267020264742</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02436648176460016</v>
+        <v>0.02439513741008812</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01246516075588804</v>
+        <v>0.01179397552382982</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01608286133493024</v>
+        <v>0.01619647215377049</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0205366080308058</v>
+        <v>0.02050257026391778</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01460002328451631</v>
+        <v>0.01512509422738244</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01178314648780806</v>
+        <v>0.01220967101594633</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01297021829836776</v>
+        <v>0.01282711830913059</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.007080091430068559</v>
+        <v>0.007181583432184298</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01506729803006513</v>
+        <v>0.01513667288978565</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01788608243957196</v>
+        <v>0.01804178710291388</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01167498993209379</v>
+        <v>0.01169464376050906</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02621956275492163</v>
+        <v>0.02580426748876458</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03230777289916994</v>
+        <v>0.03269918470787994</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02469436300584965</v>
+        <v>0.02436800863684869</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02073001770390494</v>
+        <v>0.01989433497439333</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02218282276290355</v>
+        <v>0.02238563956517612</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01416225843231336</v>
+        <v>0.01383569385521222</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02164596317607302</v>
+        <v>0.02196577478352129</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02539216292306695</v>
+        <v>0.02542655779490628</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01761583545359423</v>
+        <v>0.01753879248589951</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>16670</v>
+        <v>17470</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>16127</v>
+        <v>15819</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5631</v>
+        <v>5332</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>8123</v>
+        <v>9143</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4038</v>
+        <v>4213</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>29335</v>
+        <v>30085</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>23194</v>
+        <v>21823</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>10278</v>
+        <v>9636</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>37289</v>
+        <v>37627</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>38322</v>
+        <v>36515</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>19325</v>
+        <v>19217</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>23947</v>
+        <v>25392</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>17944</v>
+        <v>17706</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>11565</v>
+        <v>12296</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>56274</v>
+        <v>55508</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>47953</v>
+        <v>46896</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>26808</v>
+        <v>26095</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>23911</v>
+        <v>24677</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>39006</v>
+        <v>38601</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>35801</v>
+        <v>34793</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>21369</v>
+        <v>22353</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>37431</v>
+        <v>36168</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>19686</v>
+        <v>18579</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>49482</v>
+        <v>50279</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>84077</v>
+        <v>83879</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>59303</v>
+        <v>59155</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>47632</v>
+        <v>46644</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>69366</v>
+        <v>70361</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>64774</v>
+        <v>64232</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>43547</v>
+        <v>42686</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>66511</v>
+        <v>66605</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>40947</v>
+        <v>40526</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>80889</v>
+        <v>80805</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>125855</v>
+        <v>126398</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>94484</v>
+        <v>95505</v>
       </c>
     </row>
     <row r="12">
@@ -1577,16 +1577,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3482</v>
+        <v>2742</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5518</v>
+        <v>5547</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1937</v>
+        <v>1997</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3573</v>
+        <v>3370</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
@@ -1595,13 +1595,13 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>8288</v>
+        <v>8268</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>6753</v>
+        <v>6616</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>2481</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>14983</v>
+        <v>14135</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>19867</v>
+        <v>21073</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>13043</v>
+        <v>12277</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>15394</v>
+        <v>15858</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6457</v>
+        <v>6407</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4717</v>
+        <v>4693</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>25527</v>
+        <v>24135</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>22846</v>
+        <v>22873</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>13662</v>
+        <v>12927</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>52588</v>
+        <v>52959</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>70110</v>
+        <v>69993</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>49255</v>
+        <v>51027</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>39770</v>
+        <v>41210</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>46020</v>
+        <v>45512</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>24985</v>
+        <v>25343</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>100122</v>
+        <v>100583</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>124523</v>
+        <v>125607</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>80587</v>
+        <v>80722</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>85733</v>
+        <v>84375</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>110295</v>
+        <v>111631</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>83310</v>
+        <v>82209</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>69967</v>
+        <v>67147</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>78707</v>
+        <v>79427</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>49976</v>
+        <v>48824</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>143837</v>
+        <v>145962</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>176780</v>
+        <v>177019</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>121593</v>
+        <v>121061</v>
       </c>
     </row>
     <row r="20">
